--- a/data/pca/factorExposure/factorExposure_2014-09-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-09-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.0002694550775134432</v>
+        <v>0.01784860874362021</v>
       </c>
       <c r="C2">
-        <v>-0.1127267801827676</v>
+        <v>-0.07017688203998662</v>
       </c>
       <c r="D2">
-        <v>-0.01550230524992689</v>
+        <v>0.03297983563780944</v>
       </c>
       <c r="E2">
-        <v>-0.2120852025356861</v>
+        <v>0.05304754467395225</v>
       </c>
       <c r="F2">
-        <v>-0.06804360515747189</v>
+        <v>0.1491540689000452</v>
       </c>
       <c r="G2">
-        <v>0.04592288985770335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.01645152277952447</v>
+      </c>
+      <c r="H2">
+        <v>0.06111273344682786</v>
+      </c>
+      <c r="I2">
+        <v>0.01729806340895714</v>
+      </c>
+      <c r="J2">
+        <v>-0.02155721044474952</v>
+      </c>
+      <c r="K2">
+        <v>-0.1732083735136287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01397984502551976</v>
+        <v>0.01579808682356236</v>
       </c>
       <c r="C4">
-        <v>-0.1662240560730756</v>
+        <v>-0.1444867533801184</v>
       </c>
       <c r="D4">
-        <v>-0.03220321172372036</v>
+        <v>0.06495159301701078</v>
       </c>
       <c r="E4">
-        <v>-0.05649675075300371</v>
+        <v>-0.03254019482709384</v>
       </c>
       <c r="F4">
-        <v>0.05733713568828207</v>
+        <v>0.07024352719115451</v>
       </c>
       <c r="G4">
-        <v>-0.04312029271000341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.02195954992051375</v>
+      </c>
+      <c r="H4">
+        <v>0.0798018786783959</v>
+      </c>
+      <c r="I4">
+        <v>0.1114484910208158</v>
+      </c>
+      <c r="J4">
+        <v>-0.03542398682888048</v>
+      </c>
+      <c r="K4">
+        <v>-0.1646718834594057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.0250968919607896</v>
+        <v>0.03732557661140763</v>
       </c>
       <c r="C6">
-        <v>-0.07669660326790345</v>
+        <v>-0.08754176186016151</v>
       </c>
       <c r="D6">
-        <v>-0.05778311186352598</v>
+        <v>0.0277876925538733</v>
       </c>
       <c r="E6">
-        <v>-0.0679202989072423</v>
+        <v>0.0396388901524028</v>
       </c>
       <c r="F6">
-        <v>0.006938155318412863</v>
+        <v>0.03161659638002755</v>
       </c>
       <c r="G6">
-        <v>-0.02436542075163836</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.03949372128898541</v>
+      </c>
+      <c r="H6">
+        <v>0.03474224503084745</v>
+      </c>
+      <c r="I6">
+        <v>-0.00993284770677271</v>
+      </c>
+      <c r="J6">
+        <v>0.09332340667216542</v>
+      </c>
+      <c r="K6">
+        <v>-0.08332871819435615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.001227731665534649</v>
+        <v>0.01841670237691717</v>
       </c>
       <c r="C7">
-        <v>-0.06236760402316442</v>
+        <v>-0.07188252238256476</v>
       </c>
       <c r="D7">
-        <v>-0.03646397504420631</v>
+        <v>0.030109260675792</v>
       </c>
       <c r="E7">
-        <v>-0.0175509631372687</v>
+        <v>-0.01679002768005667</v>
       </c>
       <c r="F7">
-        <v>0.02640093389715299</v>
+        <v>-0.004433214868086345</v>
       </c>
       <c r="G7">
-        <v>-0.03119940832505632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02930997379191519</v>
+      </c>
+      <c r="H7">
+        <v>0.09532728072347375</v>
+      </c>
+      <c r="I7">
+        <v>0.02178920984758497</v>
+      </c>
+      <c r="J7">
+        <v>0.00240584625729884</v>
+      </c>
+      <c r="K7">
+        <v>-0.02994963751325465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.01181267649808065</v>
+        <v>-0.0003428827022243271</v>
       </c>
       <c r="C8">
-        <v>-0.06709997751532853</v>
+        <v>-0.06118852766015311</v>
       </c>
       <c r="D8">
-        <v>-0.0437864412757754</v>
+        <v>0.04539309312059944</v>
       </c>
       <c r="E8">
-        <v>-0.06798012577753486</v>
+        <v>0.00764830740360405</v>
       </c>
       <c r="F8">
-        <v>0.003909592294439908</v>
+        <v>0.06033015576132118</v>
       </c>
       <c r="G8">
-        <v>-0.00638878686737702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02050901585492302</v>
+      </c>
+      <c r="H8">
+        <v>0.06092604968758494</v>
+      </c>
+      <c r="I8">
+        <v>0.02079975999536243</v>
+      </c>
+      <c r="J8">
+        <v>0.0001455128564594185</v>
+      </c>
+      <c r="K8">
+        <v>0.01253860443611701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.006766351571740099</v>
+        <v>0.01252389164740935</v>
       </c>
       <c r="C9">
-        <v>-0.1187323418403783</v>
+        <v>-0.1032096781319177</v>
       </c>
       <c r="D9">
-        <v>-0.04490660377370347</v>
+        <v>0.04366909732598206</v>
       </c>
       <c r="E9">
-        <v>-0.01490466281411989</v>
+        <v>-0.008609528729109193</v>
       </c>
       <c r="F9">
-        <v>0.00644584806100318</v>
+        <v>0.03409141205494497</v>
       </c>
       <c r="G9">
-        <v>-0.05937697301360233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.005832464854828065</v>
+      </c>
+      <c r="H9">
+        <v>0.08418179082943125</v>
+      </c>
+      <c r="I9">
+        <v>0.07509246239041042</v>
+      </c>
+      <c r="J9">
+        <v>-0.005818558010111668</v>
+      </c>
+      <c r="K9">
+        <v>-0.07695511011169862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.273102404597267</v>
+        <v>0.2484924188949603</v>
       </c>
       <c r="C10">
-        <v>0.06930637697321118</v>
+        <v>0.09015804061929637</v>
       </c>
       <c r="D10">
-        <v>0.01969928587986993</v>
+        <v>-0.006306940879460354</v>
       </c>
       <c r="E10">
-        <v>0.02667922463935861</v>
+        <v>0.01201979645640185</v>
       </c>
       <c r="F10">
-        <v>0.005005647327704952</v>
+        <v>-0.00285128746291952</v>
       </c>
       <c r="G10">
-        <v>-0.02429254753076318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02272720704239375</v>
+      </c>
+      <c r="H10">
+        <v>0.03220491021856337</v>
+      </c>
+      <c r="I10">
+        <v>0.01250560364044851</v>
+      </c>
+      <c r="J10">
+        <v>-0.1785774000835914</v>
+      </c>
+      <c r="K10">
+        <v>0.09405791258579774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.002942597033944375</v>
+        <v>0.01605798390561877</v>
       </c>
       <c r="C11">
-        <v>-0.06451107526891428</v>
+        <v>-0.08283950521931156</v>
       </c>
       <c r="D11">
-        <v>-0.03028155641574112</v>
+        <v>0.03795265018437068</v>
       </c>
       <c r="E11">
-        <v>0.02158176442269407</v>
+        <v>-0.005827433121317675</v>
       </c>
       <c r="F11">
-        <v>0.007958062830298929</v>
+        <v>-0.01380457953006947</v>
       </c>
       <c r="G11">
-        <v>-0.0444434773478805</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.009028970719402438</v>
+      </c>
+      <c r="H11">
+        <v>0.02882579259048007</v>
+      </c>
+      <c r="I11">
+        <v>0.0175467012148515</v>
+      </c>
+      <c r="J11">
+        <v>0.02492838052734537</v>
+      </c>
+      <c r="K11">
+        <v>0.0117168224355904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.000280590899608571</v>
+        <v>0.01546614369575979</v>
       </c>
       <c r="C12">
-        <v>-0.0433745125959069</v>
+        <v>-0.05575902915178315</v>
       </c>
       <c r="D12">
-        <v>-0.03647781960655343</v>
+        <v>0.02533108617470738</v>
       </c>
       <c r="E12">
-        <v>0.01586599592909498</v>
+        <v>0.01900229999640286</v>
       </c>
       <c r="F12">
-        <v>-0.02336282344879807</v>
+        <v>-0.01318998432758692</v>
       </c>
       <c r="G12">
-        <v>-0.06161334349774645</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.02853029452838367</v>
+      </c>
+      <c r="H12">
+        <v>0.02422364027228438</v>
+      </c>
+      <c r="I12">
+        <v>0.01916265649063503</v>
+      </c>
+      <c r="J12">
+        <v>0.01622891271643112</v>
+      </c>
+      <c r="K12">
+        <v>0.001322926493892609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.007899391507417065</v>
+        <v>0.004769478120891025</v>
       </c>
       <c r="C13">
-        <v>-0.1169044861344766</v>
+        <v>-0.1210275839735603</v>
       </c>
       <c r="D13">
-        <v>-0.06550873857047773</v>
+        <v>0.04250521060605274</v>
       </c>
       <c r="E13">
-        <v>-0.04208091376504892</v>
+        <v>0.1175759841273514</v>
       </c>
       <c r="F13">
-        <v>-0.05953821084934787</v>
+        <v>0.1033651149963848</v>
       </c>
       <c r="G13">
-        <v>-0.1703793072283409</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1197671668228433</v>
+      </c>
+      <c r="H13">
+        <v>0.1461113260730845</v>
+      </c>
+      <c r="I13">
+        <v>-0.1148151704556327</v>
+      </c>
+      <c r="J13">
+        <v>-0.1940530827322281</v>
+      </c>
+      <c r="K13">
+        <v>0.2199712025420364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.005548718167861284</v>
+        <v>0.02013127611274588</v>
       </c>
       <c r="C14">
-        <v>-0.07036235637846636</v>
+        <v>-0.07588309828907167</v>
       </c>
       <c r="D14">
-        <v>-0.0376385694019113</v>
+        <v>0.04978932963537743</v>
       </c>
       <c r="E14">
-        <v>-0.0291629964912561</v>
+        <v>0.04379967852369897</v>
       </c>
       <c r="F14">
-        <v>-0.02700765768586995</v>
+        <v>0.0008057293700179473</v>
       </c>
       <c r="G14">
-        <v>-0.07656257076635833</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.07895819984533821</v>
+      </c>
+      <c r="H14">
+        <v>0.2025978668845131</v>
+      </c>
+      <c r="I14">
+        <v>0.01545898970231981</v>
+      </c>
+      <c r="J14">
+        <v>0.01985316199566304</v>
+      </c>
+      <c r="K14">
+        <v>0.1132714161864998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.003053996853053959</v>
+        <v>0.003489449692837101</v>
       </c>
       <c r="C15">
-        <v>-0.09934190604230168</v>
+        <v>-0.08394989378858994</v>
       </c>
       <c r="D15">
-        <v>-0.04805222845600075</v>
+        <v>0.03377229705241009</v>
       </c>
       <c r="E15">
-        <v>-0.04451531081673342</v>
+        <v>-0.006266003630918771</v>
       </c>
       <c r="F15">
-        <v>0.001909774088417292</v>
+        <v>0.02491802345815033</v>
       </c>
       <c r="G15">
-        <v>-0.05630212421196278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.02426253610431873</v>
+      </c>
+      <c r="H15">
+        <v>0.09472592136193229</v>
+      </c>
+      <c r="I15">
+        <v>0.03190352344226871</v>
+      </c>
+      <c r="J15">
+        <v>0.02098932371428965</v>
+      </c>
+      <c r="K15">
+        <v>0.06786175070641769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.005414290777405077</v>
+        <v>0.01512314222202836</v>
       </c>
       <c r="C16">
-        <v>-0.05505866888294281</v>
+        <v>-0.06213717498453895</v>
       </c>
       <c r="D16">
-        <v>-0.02523279878014868</v>
+        <v>0.02631778549078096</v>
       </c>
       <c r="E16">
-        <v>0.01468411437545314</v>
+        <v>-0.001725879432536209</v>
       </c>
       <c r="F16">
-        <v>-0.008875056461780058</v>
+        <v>-0.00839697371498579</v>
       </c>
       <c r="G16">
-        <v>-0.03170926925830267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.009126103410076851</v>
+      </c>
+      <c r="H16">
+        <v>0.02104864040986041</v>
+      </c>
+      <c r="I16">
+        <v>0.01384232573460077</v>
+      </c>
+      <c r="J16">
+        <v>0.01894255676847935</v>
+      </c>
+      <c r="K16">
+        <v>-0.004922058364671248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.009381362277085806</v>
+        <v>0.01437532756976948</v>
       </c>
       <c r="C20">
-        <v>-0.08503417205687605</v>
+        <v>-0.08610961587896745</v>
       </c>
       <c r="D20">
-        <v>-0.03682446732194965</v>
+        <v>0.02676240555228215</v>
       </c>
       <c r="E20">
-        <v>0.02423690178180463</v>
+        <v>-0.02358456896093857</v>
       </c>
       <c r="F20">
-        <v>0.01065679714742037</v>
+        <v>-0.01045552774967367</v>
       </c>
       <c r="G20">
-        <v>-0.111316462622118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.03604396542177728</v>
+      </c>
+      <c r="H20">
+        <v>0.07541121238794758</v>
+      </c>
+      <c r="I20">
+        <v>0.01607448796046453</v>
+      </c>
+      <c r="J20">
+        <v>0.01707911985052976</v>
+      </c>
+      <c r="K20">
+        <v>-0.01019505413042416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.008929980073272396</v>
+        <v>0.01156967600423576</v>
       </c>
       <c r="C21">
-        <v>-0.09287210700110685</v>
+        <v>-0.0726364426111029</v>
       </c>
       <c r="D21">
-        <v>0.01985898456586951</v>
+        <v>0.01996882428825205</v>
       </c>
       <c r="E21">
-        <v>-0.03233298184300109</v>
+        <v>0.09392342539259019</v>
       </c>
       <c r="F21">
-        <v>-0.06333021555195964</v>
+        <v>0.02176111584036073</v>
       </c>
       <c r="G21">
-        <v>-0.06291816716402344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.02691111021782158</v>
+      </c>
+      <c r="H21">
+        <v>0.1465116735756652</v>
+      </c>
+      <c r="I21">
+        <v>-0.01670511400846611</v>
+      </c>
+      <c r="J21">
+        <v>-0.01262596490661567</v>
+      </c>
+      <c r="K21">
+        <v>0.03552144209053474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.01257974101053753</v>
+        <v>0.004070664460597456</v>
       </c>
       <c r="C22">
-        <v>-0.2498980156409342</v>
+        <v>-0.1776696284302833</v>
       </c>
       <c r="D22">
-        <v>0.08313759507207363</v>
+        <v>0.01664212286362068</v>
       </c>
       <c r="E22">
-        <v>-0.3394402711839394</v>
+        <v>-0.09750362785189642</v>
       </c>
       <c r="F22">
-        <v>0.2660346940197278</v>
+        <v>0.5257239945907676</v>
       </c>
       <c r="G22">
-        <v>0.1281546735033247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>4.231904208207067e-05</v>
+      </c>
+      <c r="H22">
+        <v>-0.2960802606028385</v>
+      </c>
+      <c r="I22">
+        <v>-0.09487914484261128</v>
+      </c>
+      <c r="J22">
+        <v>0.01155337284651459</v>
+      </c>
+      <c r="K22">
+        <v>0.1812406330190623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.01385634620662621</v>
+        <v>0.009313777691221471</v>
       </c>
       <c r="C23">
-        <v>-0.252573362723722</v>
+        <v>-0.1814473344574871</v>
       </c>
       <c r="D23">
-        <v>0.08796953850858677</v>
+        <v>0.01663560722653424</v>
       </c>
       <c r="E23">
-        <v>-0.3332821193203371</v>
+        <v>-0.09284514993709293</v>
       </c>
       <c r="F23">
-        <v>0.2621827342020936</v>
+        <v>0.5099937917418939</v>
       </c>
       <c r="G23">
-        <v>0.1272207082007198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.001274156489975338</v>
+      </c>
+      <c r="H23">
+        <v>-0.2772346466009166</v>
+      </c>
+      <c r="I23">
+        <v>-0.08114297101432705</v>
+      </c>
+      <c r="J23">
+        <v>0.01474232642626487</v>
+      </c>
+      <c r="K23">
+        <v>0.1705623516554944</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.0002043372777844909</v>
+        <v>0.01579337942244202</v>
       </c>
       <c r="C24">
-        <v>-0.0512512524165125</v>
+        <v>-0.06548849438152644</v>
       </c>
       <c r="D24">
-        <v>-0.04246039842019948</v>
+        <v>0.03966474060248837</v>
       </c>
       <c r="E24">
-        <v>0.01525334725704668</v>
+        <v>-0.003791465544793102</v>
       </c>
       <c r="F24">
-        <v>0.0002689401852333508</v>
+        <v>-0.008852467564525988</v>
       </c>
       <c r="G24">
-        <v>-0.0599942481798319</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.024680160572004</v>
+      </c>
+      <c r="H24">
+        <v>0.03921749441554811</v>
+      </c>
+      <c r="I24">
+        <v>0.01858060829600343</v>
+      </c>
+      <c r="J24">
+        <v>0.01890798204982987</v>
+      </c>
+      <c r="K24">
+        <v>0.004124432290087776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.002667457028496806</v>
+        <v>0.01995575561724116</v>
       </c>
       <c r="C25">
-        <v>-0.061590602198045</v>
+        <v>-0.06862926484563879</v>
       </c>
       <c r="D25">
-        <v>-0.02187544097356757</v>
+        <v>0.03270981428010469</v>
       </c>
       <c r="E25">
-        <v>0.02137069677730041</v>
+        <v>-0.004746982627417321</v>
       </c>
       <c r="F25">
-        <v>0.0004487051841218699</v>
+        <v>-0.007836627023441381</v>
       </c>
       <c r="G25">
-        <v>-0.05384452748556152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.01862220137751775</v>
+      </c>
+      <c r="H25">
+        <v>0.0322383106651482</v>
+      </c>
+      <c r="I25">
+        <v>0.02142426103421848</v>
+      </c>
+      <c r="J25">
+        <v>0.005908416947469491</v>
+      </c>
+      <c r="K25">
+        <v>0.01641264444364491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.0006593970063695447</v>
+        <v>0.02296562455467614</v>
       </c>
       <c r="C26">
-        <v>-0.04679135501995541</v>
+        <v>-0.05722615271280519</v>
       </c>
       <c r="D26">
-        <v>-0.07026101724255976</v>
+        <v>0.06303216342425023</v>
       </c>
       <c r="E26">
-        <v>-0.004450428932251119</v>
+        <v>-0.007026957273231896</v>
       </c>
       <c r="F26">
-        <v>-0.03754182570022183</v>
+        <v>-0.01675339735200009</v>
       </c>
       <c r="G26">
-        <v>-0.04213859389439974</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.0005802306742580503</v>
+      </c>
+      <c r="H26">
+        <v>0.0980195895369045</v>
+      </c>
+      <c r="I26">
+        <v>0.06167035954918469</v>
+      </c>
+      <c r="J26">
+        <v>0.03683676920799054</v>
+      </c>
+      <c r="K26">
+        <v>-0.1198074727779632</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3674732864084354</v>
+        <v>0.3152789893171389</v>
       </c>
       <c r="C28">
-        <v>0.07958009058470444</v>
+        <v>0.105005545659428</v>
       </c>
       <c r="D28">
-        <v>0.01553567256776508</v>
+        <v>-0.03240726674584761</v>
       </c>
       <c r="E28">
-        <v>0.06002233915839514</v>
+        <v>0.006703477255242033</v>
       </c>
       <c r="F28">
-        <v>-0.04628542950671586</v>
+        <v>0.04446510224372881</v>
       </c>
       <c r="G28">
-        <v>0.07696065662493624</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.1219713798346951</v>
+      </c>
+      <c r="H28">
+        <v>0.0517764817011533</v>
+      </c>
+      <c r="I28">
+        <v>-0.03088261976882675</v>
+      </c>
+      <c r="J28">
+        <v>-0.2081098215340182</v>
+      </c>
+      <c r="K28">
+        <v>-0.03244261794271867</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.004984823354040937</v>
+        <v>0.01481268811718006</v>
       </c>
       <c r="C29">
-        <v>-0.07444900516798729</v>
+        <v>-0.08217388726571177</v>
       </c>
       <c r="D29">
-        <v>-0.04650855337872888</v>
+        <v>0.05380491819448031</v>
       </c>
       <c r="E29">
-        <v>-0.02383365535452462</v>
+        <v>0.04597541821085534</v>
       </c>
       <c r="F29">
-        <v>-0.02488315836813603</v>
+        <v>0.006769697792203862</v>
       </c>
       <c r="G29">
-        <v>-0.1136719695634978</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.1172456987057337</v>
+      </c>
+      <c r="H29">
+        <v>0.2865989814213332</v>
+      </c>
+      <c r="I29">
+        <v>0.02730886525100996</v>
+      </c>
+      <c r="J29">
+        <v>-0.002016671318086447</v>
+      </c>
+      <c r="K29">
+        <v>0.1738285213573542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.01492843271315073</v>
+        <v>0.02963563760659575</v>
       </c>
       <c r="C30">
-        <v>-0.1677740232026636</v>
+        <v>-0.1423940925670927</v>
       </c>
       <c r="D30">
-        <v>-0.07007623139001147</v>
+        <v>0.05602097390651395</v>
       </c>
       <c r="E30">
-        <v>-0.03299016077004348</v>
+        <v>-0.01766920328495031</v>
       </c>
       <c r="F30">
-        <v>0.0403270421988163</v>
+        <v>0.060603749028387</v>
       </c>
       <c r="G30">
-        <v>-0.0201593870486588</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.002149348084421074</v>
+      </c>
+      <c r="H30">
+        <v>0.03966622642950083</v>
+      </c>
+      <c r="I30">
+        <v>0.02606957401000572</v>
+      </c>
+      <c r="J30">
+        <v>0.04404014475461675</v>
+      </c>
+      <c r="K30">
+        <v>-0.08532399225816542</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.002391494598791618</v>
+        <v>0.01444969300452131</v>
       </c>
       <c r="C31">
-        <v>-0.05535680503002674</v>
+        <v>-0.08072907815342106</v>
       </c>
       <c r="D31">
-        <v>-0.0371817996088977</v>
+        <v>0.04133578304171193</v>
       </c>
       <c r="E31">
-        <v>0.01945619479792221</v>
+        <v>0.001888791068839791</v>
       </c>
       <c r="F31">
-        <v>-0.01485231894787308</v>
+        <v>-0.001119409480540896</v>
       </c>
       <c r="G31">
-        <v>-0.0188885429253457</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.0228336929593145</v>
+      </c>
+      <c r="H31">
+        <v>0.03113520524704039</v>
+      </c>
+      <c r="I31">
+        <v>0.0237801906230722</v>
+      </c>
+      <c r="J31">
+        <v>0.006680754454847926</v>
+      </c>
+      <c r="K31">
+        <v>0.02397530846776977</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.01653982582713145</v>
+        <v>0.02176525837185857</v>
       </c>
       <c r="C32">
-        <v>-0.08577066946057457</v>
+        <v>-0.0514254749486921</v>
       </c>
       <c r="D32">
-        <v>-0.001574000189443881</v>
+        <v>0.02617387425006181</v>
       </c>
       <c r="E32">
-        <v>-0.1445984003279671</v>
+        <v>0.05948422919201331</v>
       </c>
       <c r="F32">
-        <v>-0.02103306060816685</v>
+        <v>0.09903357886766208</v>
       </c>
       <c r="G32">
-        <v>-0.09298008799763821</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.06051431041986637</v>
+      </c>
+      <c r="H32">
+        <v>0.1686366657682326</v>
+      </c>
+      <c r="I32">
+        <v>-0.05944800436844903</v>
+      </c>
+      <c r="J32">
+        <v>-0.2683432120864502</v>
+      </c>
+      <c r="K32">
+        <v>0.02139691156382353</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.01536560747642005</v>
+        <v>0.01728859781673759</v>
       </c>
       <c r="C33">
-        <v>-0.08595027024599033</v>
+        <v>-0.1048047679032379</v>
       </c>
       <c r="D33">
-        <v>-0.06492935249100534</v>
+        <v>0.05174098485444814</v>
       </c>
       <c r="E33">
-        <v>-0.005471267706768612</v>
+        <v>-0.007213830451428431</v>
       </c>
       <c r="F33">
-        <v>-0.01297419167051708</v>
+        <v>0.01293858927333514</v>
       </c>
       <c r="G33">
-        <v>-0.03965364930942775</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.02338381359198684</v>
+      </c>
+      <c r="H33">
+        <v>0.05232529328310428</v>
+      </c>
+      <c r="I33">
+        <v>0.01926161801663319</v>
+      </c>
+      <c r="J33">
+        <v>-0.01973844624786218</v>
+      </c>
+      <c r="K33">
+        <v>-0.002884498103318452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.0006512823317640718</v>
+        <v>0.01566805463001688</v>
       </c>
       <c r="C34">
-        <v>-0.04486691034793114</v>
+        <v>-0.0485252433982772</v>
       </c>
       <c r="D34">
-        <v>-0.01977532089084072</v>
+        <v>0.01981515079380156</v>
       </c>
       <c r="E34">
-        <v>0.004074646200584752</v>
+        <v>0.005550390722864487</v>
       </c>
       <c r="F34">
-        <v>-0.02110051789701296</v>
+        <v>-0.01117273694931165</v>
       </c>
       <c r="G34">
-        <v>-0.0380964306208639</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01759514913792704</v>
+      </c>
+      <c r="H34">
+        <v>0.006490439648415499</v>
+      </c>
+      <c r="I34">
+        <v>0.01852851571612533</v>
+      </c>
+      <c r="J34">
+        <v>0.01357175576890603</v>
+      </c>
+      <c r="K34">
+        <v>0.003828962571558631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.002468725467289962</v>
+        <v>0.01033768827140802</v>
       </c>
       <c r="C35">
-        <v>-0.02523343595860781</v>
+        <v>-0.04358678888130867</v>
       </c>
       <c r="D35">
-        <v>-0.007410037015782672</v>
+        <v>0.02315362629448376</v>
       </c>
       <c r="E35">
-        <v>-0.005962130067474883</v>
+        <v>0.009438678031567392</v>
       </c>
       <c r="F35">
-        <v>-0.004933814105003683</v>
+        <v>0.007155583856506362</v>
       </c>
       <c r="G35">
-        <v>-0.03551902658683399</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.0451834799146327</v>
+      </c>
+      <c r="H35">
+        <v>0.1452372333767707</v>
+      </c>
+      <c r="I35">
+        <v>0.04496930414953843</v>
+      </c>
+      <c r="J35">
+        <v>-0.01890492330823484</v>
+      </c>
+      <c r="K35">
+        <v>0.1514062506779815</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.001563181373720462</v>
+        <v>0.01623172798971851</v>
       </c>
       <c r="C36">
-        <v>-0.04794109262001121</v>
+        <v>-0.04947700324243241</v>
       </c>
       <c r="D36">
-        <v>-0.05275697211355705</v>
+        <v>0.0453689718470468</v>
       </c>
       <c r="E36">
-        <v>0.002257651171631493</v>
+        <v>-0.003181318347166559</v>
       </c>
       <c r="F36">
-        <v>-0.01324139564422302</v>
+        <v>0.006090963831419236</v>
       </c>
       <c r="G36">
-        <v>-0.02808599628235038</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.002827726515302541</v>
+      </c>
+      <c r="H36">
+        <v>0.07711414489698797</v>
+      </c>
+      <c r="I36">
+        <v>0.01676333135670279</v>
+      </c>
+      <c r="J36">
+        <v>0.01402704177505201</v>
+      </c>
+      <c r="K36">
+        <v>-0.04590468634845283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.03079137727679074</v>
+        <v>0.01023558495750495</v>
       </c>
       <c r="C38">
-        <v>-0.05539383641069008</v>
+        <v>-0.06043121930568812</v>
       </c>
       <c r="D38">
-        <v>-0.05113871383680127</v>
+        <v>0.04139409973413419</v>
       </c>
       <c r="E38">
-        <v>0.01352635480680213</v>
+        <v>-0.03327187411211603</v>
       </c>
       <c r="F38">
-        <v>0.004141045051098409</v>
+        <v>0.01795227983150116</v>
       </c>
       <c r="G38">
-        <v>-0.03360476946317702</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.001938847960220026</v>
+      </c>
+      <c r="H38">
+        <v>0.08171010114139543</v>
+      </c>
+      <c r="I38">
+        <v>-0.01434971511488862</v>
+      </c>
+      <c r="J38">
+        <v>-0.05070471666657209</v>
+      </c>
+      <c r="K38">
+        <v>0.03141583524525075</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.001027782776723142</v>
+        <v>0.01771657058146141</v>
       </c>
       <c r="C39">
-        <v>-0.1267744984033635</v>
+        <v>-0.1296015654313766</v>
       </c>
       <c r="D39">
-        <v>-0.05635350516196103</v>
+        <v>0.05703621493713559</v>
       </c>
       <c r="E39">
-        <v>0.002852817946079339</v>
+        <v>0.008533785401446317</v>
       </c>
       <c r="F39">
-        <v>-0.004044044798065234</v>
+        <v>-0.002400888790860962</v>
       </c>
       <c r="G39">
-        <v>-0.08986133537644386</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04033949779784902</v>
+      </c>
+      <c r="H39">
+        <v>0.05721722148340476</v>
+      </c>
+      <c r="I39">
+        <v>0.008612773786966531</v>
+      </c>
+      <c r="J39">
+        <v>0.07779677631555774</v>
+      </c>
+      <c r="K39">
+        <v>-0.03129006030286786</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.001973308195872869</v>
+        <v>0.01185262421224741</v>
       </c>
       <c r="C40">
-        <v>-0.02526497436696975</v>
+        <v>-0.05593160798658305</v>
       </c>
       <c r="D40">
-        <v>-0.01756613275636741</v>
+        <v>0.04204931419564104</v>
       </c>
       <c r="E40">
-        <v>-0.138047543586915</v>
+        <v>0.0336636908169697</v>
       </c>
       <c r="F40">
-        <v>0.04331578221463449</v>
+        <v>0.03471944026789599</v>
       </c>
       <c r="G40">
-        <v>-0.08882899441108598</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1537858657023553</v>
+      </c>
+      <c r="H40">
+        <v>0.03440285399220372</v>
+      </c>
+      <c r="I40">
+        <v>0.03753887170068158</v>
+      </c>
+      <c r="J40">
+        <v>-0.01996349197998365</v>
+      </c>
+      <c r="K40">
+        <v>0.2881039566505409</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01282849156625749</v>
+        <v>0.02239998566680776</v>
       </c>
       <c r="C41">
-        <v>-0.02095089287334824</v>
+        <v>-0.04740040744526696</v>
       </c>
       <c r="D41">
-        <v>-0.009712020106251535</v>
+        <v>0.01670502725067174</v>
       </c>
       <c r="E41">
-        <v>0.01576520246394394</v>
+        <v>-0.000813862903092536</v>
       </c>
       <c r="F41">
-        <v>-0.02015699605051496</v>
+        <v>-0.02242545237609275</v>
       </c>
       <c r="G41">
-        <v>0.03923849413919313</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.008166723642302854</v>
+      </c>
+      <c r="H41">
+        <v>0.02101936619227961</v>
+      </c>
+      <c r="I41">
+        <v>-0.005075676650468127</v>
+      </c>
+      <c r="J41">
+        <v>-0.02854681058548328</v>
+      </c>
+      <c r="K41">
+        <v>0.04590807959025604</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.00348977279997299</v>
+        <v>0.01818219003892209</v>
       </c>
       <c r="C43">
-        <v>-0.01844973406399667</v>
+        <v>-0.04377942738310489</v>
       </c>
       <c r="D43">
-        <v>-0.01952668696349694</v>
+        <v>0.02916043324270449</v>
       </c>
       <c r="E43">
-        <v>0.008527242169551289</v>
+        <v>-0.01104660398541613</v>
       </c>
       <c r="F43">
-        <v>0.001483733743747686</v>
+        <v>-0.01060263632178911</v>
       </c>
       <c r="G43">
-        <v>-0.004243731467148641</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.0003196075370939421</v>
+      </c>
+      <c r="H43">
+        <v>0.03962275771456392</v>
+      </c>
+      <c r="I43">
+        <v>-0.0009449387714461068</v>
+      </c>
+      <c r="J43">
+        <v>0.0005304942626929822</v>
+      </c>
+      <c r="K43">
+        <v>0.03644989140143334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.01755410227068407</v>
+        <v>0.01459477509525405</v>
       </c>
       <c r="C44">
-        <v>-0.09611750899409052</v>
+        <v>-0.09838436284736288</v>
       </c>
       <c r="D44">
-        <v>-0.03618500407078486</v>
+        <v>0.05750756644005271</v>
       </c>
       <c r="E44">
-        <v>-0.03595758987478953</v>
+        <v>-0.03130612996893864</v>
       </c>
       <c r="F44">
-        <v>0.02803250356750945</v>
+        <v>0.06183783814744157</v>
       </c>
       <c r="G44">
-        <v>-0.06630068315516077</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04538051828981752</v>
+      </c>
+      <c r="H44">
+        <v>0.05712985291201944</v>
+      </c>
+      <c r="I44">
+        <v>0.006616279194968483</v>
+      </c>
+      <c r="J44">
+        <v>0.04810062169316183</v>
+      </c>
+      <c r="K44">
+        <v>-0.0852507645825117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.00606102319928424</v>
+        <v>0.003742258910202282</v>
       </c>
       <c r="C46">
-        <v>-0.0632547547720187</v>
+        <v>-0.06446450979931298</v>
       </c>
       <c r="D46">
-        <v>-0.04713026246996472</v>
+        <v>0.02938674623721122</v>
       </c>
       <c r="E46">
-        <v>-0.02228688473840596</v>
+        <v>0.005735316339336147</v>
       </c>
       <c r="F46">
-        <v>-0.007196225448419049</v>
+        <v>-0.006906132471153712</v>
       </c>
       <c r="G46">
-        <v>-0.06864144837064846</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.03972838795865243</v>
+      </c>
+      <c r="H46">
+        <v>0.1023233684252654</v>
+      </c>
+      <c r="I46">
+        <v>-0.006594799005350063</v>
+      </c>
+      <c r="J46">
+        <v>0.004074365373941862</v>
+      </c>
+      <c r="K46">
+        <v>0.07182592644764575</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.005008452669275954</v>
+        <v>0.0214893290513954</v>
       </c>
       <c r="C47">
-        <v>-0.06442397268655378</v>
+        <v>-0.07864385428925472</v>
       </c>
       <c r="D47">
-        <v>-0.0483590349425503</v>
+        <v>0.04217063191784377</v>
       </c>
       <c r="E47">
-        <v>0.02972403053965228</v>
+        <v>0.004844139860094558</v>
       </c>
       <c r="F47">
-        <v>-0.04932336939468254</v>
+        <v>-0.01755652854408294</v>
       </c>
       <c r="G47">
-        <v>-0.04519474556531276</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01006967154054251</v>
+      </c>
+      <c r="H47">
+        <v>0.07212226916661359</v>
+      </c>
+      <c r="I47">
+        <v>-0.001214520157822176</v>
+      </c>
+      <c r="J47">
+        <v>-0.02079373406983961</v>
+      </c>
+      <c r="K47">
+        <v>0.02816407934847779</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.004540943092911323</v>
+        <v>0.02074939038455176</v>
       </c>
       <c r="C48">
-        <v>-0.05086242713504441</v>
+        <v>-0.05096912777645391</v>
       </c>
       <c r="D48">
-        <v>-0.05948464143801054</v>
+        <v>0.05352585878957426</v>
       </c>
       <c r="E48">
-        <v>0.002485053237521374</v>
+        <v>-0.008802516958258328</v>
       </c>
       <c r="F48">
-        <v>-0.01061822918790411</v>
+        <v>-0.0011466927535699</v>
       </c>
       <c r="G48">
-        <v>-0.04160393130525305</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>3.698001775358773e-05</v>
+      </c>
+      <c r="H48">
+        <v>0.09540803540352821</v>
+      </c>
+      <c r="I48">
+        <v>0.04895896391586071</v>
+      </c>
+      <c r="J48">
+        <v>0.02779183132715614</v>
+      </c>
+      <c r="K48">
+        <v>-0.09968088604269706</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.009090269059680236</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.02853877307019662</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.006362171736284957</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.008016947474699746</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.03841291885168802</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.03486980333364278</v>
+      </c>
+      <c r="H49">
+        <v>-0.02271985331259653</v>
+      </c>
+      <c r="I49">
+        <v>0.04707843199677816</v>
+      </c>
+      <c r="J49">
+        <v>0.03972300286212134</v>
+      </c>
+      <c r="K49">
+        <v>-0.02250040716390232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.0007349292731013755</v>
+        <v>0.01474145089581169</v>
       </c>
       <c r="C50">
-        <v>-0.06662927557234685</v>
+        <v>-0.07911483485655854</v>
       </c>
       <c r="D50">
-        <v>-0.03437848654542561</v>
+        <v>0.03031140738180265</v>
       </c>
       <c r="E50">
-        <v>0.004512509020979452</v>
+        <v>-0.008242680322929486</v>
       </c>
       <c r="F50">
-        <v>-0.0002009549162061229</v>
+        <v>0.006528397266865845</v>
       </c>
       <c r="G50">
-        <v>-0.03248092165774725</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.006967719394924353</v>
+      </c>
+      <c r="H50">
+        <v>0.05321274572277579</v>
+      </c>
+      <c r="I50">
+        <v>0.01267165171768143</v>
+      </c>
+      <c r="J50">
+        <v>-0.04640271366457883</v>
+      </c>
+      <c r="K50">
+        <v>0.0125433768804123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.001518681946298707</v>
+        <v>-0.0061033342705996</v>
       </c>
       <c r="C51">
-        <v>-0.07342598785173871</v>
+        <v>-0.03396597417699738</v>
       </c>
       <c r="D51">
-        <v>-0.0227556508097021</v>
+        <v>0.02226704817897727</v>
       </c>
       <c r="E51">
-        <v>-0.04139698327565191</v>
+        <v>0.009898255472118972</v>
       </c>
       <c r="F51">
-        <v>0.0147655117166673</v>
+        <v>0.0289979721706957</v>
       </c>
       <c r="G51">
-        <v>-0.04953116576472098</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.0239473465230851</v>
+      </c>
+      <c r="H51">
+        <v>0.1021859288541138</v>
+      </c>
+      <c r="I51">
+        <v>0.02646929913253295</v>
+      </c>
+      <c r="J51">
+        <v>0.003753454286830326</v>
+      </c>
+      <c r="K51">
+        <v>-0.09821487567693321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.03515337288612813</v>
+        <v>0.05754128979043711</v>
       </c>
       <c r="C53">
-        <v>-0.124311910788169</v>
+        <v>-0.1311210575644408</v>
       </c>
       <c r="D53">
-        <v>-0.08354572371186071</v>
+        <v>0.0590856469269274</v>
       </c>
       <c r="E53">
-        <v>0.1306827906707433</v>
+        <v>0.01692415365127414</v>
       </c>
       <c r="F53">
-        <v>-0.05214266645474248</v>
+        <v>-0.07334944992147419</v>
       </c>
       <c r="G53">
-        <v>0.05321302230024617</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.08178803384775062</v>
+      </c>
+      <c r="H53">
+        <v>-0.03308204588326911</v>
+      </c>
+      <c r="I53">
+        <v>0.005346931547827729</v>
+      </c>
+      <c r="J53">
+        <v>-0.03657160471195236</v>
+      </c>
+      <c r="K53">
+        <v>0.00976850001313959</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.001684418230882807</v>
+        <v>0.01727399701448329</v>
       </c>
       <c r="C54">
-        <v>-0.06350973388324647</v>
+        <v>-0.07416386637560235</v>
       </c>
       <c r="D54">
-        <v>-0.009180472133558985</v>
+        <v>0.0134159996316801</v>
       </c>
       <c r="E54">
-        <v>0.02607518875083116</v>
+        <v>0.005507211135736999</v>
       </c>
       <c r="F54">
-        <v>0.006655511315288447</v>
+        <v>-0.01789327320533063</v>
       </c>
       <c r="G54">
-        <v>-0.02047772064486346</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.0222100625193322</v>
+      </c>
+      <c r="H54">
+        <v>0.04432699888124454</v>
+      </c>
+      <c r="I54">
+        <v>0.03713437007947086</v>
+      </c>
+      <c r="J54">
+        <v>0.02028034449618166</v>
+      </c>
+      <c r="K54">
+        <v>-0.001515333529142623</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.01872941331159154</v>
+        <v>0.03108673788842301</v>
       </c>
       <c r="C55">
-        <v>-0.07933012753024916</v>
+        <v>-0.08434287377613021</v>
       </c>
       <c r="D55">
-        <v>-0.07090453574586086</v>
+        <v>0.05521519941237939</v>
       </c>
       <c r="E55">
-        <v>0.06078490601212314</v>
+        <v>0.00692925534920073</v>
       </c>
       <c r="F55">
-        <v>-0.03994549987178231</v>
+        <v>-0.05246194798851694</v>
       </c>
       <c r="G55">
-        <v>0.009862681657452224</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03744627237242803</v>
+      </c>
+      <c r="H55">
+        <v>-0.02077661536045671</v>
+      </c>
+      <c r="I55">
+        <v>0.01493989476169028</v>
+      </c>
+      <c r="J55">
+        <v>0.009289964962898647</v>
+      </c>
+      <c r="K55">
+        <v>0.003073391330206804</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.01793697675654432</v>
+        <v>0.04518868635491716</v>
       </c>
       <c r="C56">
-        <v>-0.1534669489943681</v>
+        <v>-0.1488268595399602</v>
       </c>
       <c r="D56">
-        <v>-0.0841040221119176</v>
+        <v>0.08478041519078261</v>
       </c>
       <c r="E56">
-        <v>0.1152009376623944</v>
+        <v>0.04791286670755564</v>
       </c>
       <c r="F56">
-        <v>-0.07797638695238703</v>
+        <v>-0.09800604172985447</v>
       </c>
       <c r="G56">
-        <v>0.1102213128422988</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1629764894107485</v>
+      </c>
+      <c r="H56">
+        <v>-0.049176921208396</v>
+      </c>
+      <c r="I56">
+        <v>0.02476046619222921</v>
+      </c>
+      <c r="J56">
+        <v>-0.01584804820954832</v>
+      </c>
+      <c r="K56">
+        <v>-0.01579895760970312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.02138995533070737</v>
+        <v>0.02032271703587643</v>
       </c>
       <c r="C58">
-        <v>-0.2987108437943697</v>
+        <v>-0.18400333186857</v>
       </c>
       <c r="D58">
-        <v>0.01336272839605825</v>
+        <v>0.03968998544736916</v>
       </c>
       <c r="E58">
-        <v>-0.1823420534370259</v>
+        <v>-0.04742242130845176</v>
       </c>
       <c r="F58">
-        <v>0.2439571677440329</v>
+        <v>0.3135154503590776</v>
       </c>
       <c r="G58">
-        <v>0.07919432743400195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.08990907144861263</v>
+      </c>
+      <c r="H58">
+        <v>0.06646627207098132</v>
+      </c>
+      <c r="I58">
+        <v>-0.01703889881926888</v>
+      </c>
+      <c r="J58">
+        <v>-0.0422530565138422</v>
+      </c>
+      <c r="K58">
+        <v>-0.3659550836690671</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.284777993728533</v>
+        <v>0.2897217072464911</v>
       </c>
       <c r="C59">
-        <v>-0.003022885868295624</v>
+        <v>0.04366383534548909</v>
       </c>
       <c r="D59">
-        <v>0.01632272390631986</v>
+        <v>-0.005741031240645429</v>
       </c>
       <c r="E59">
-        <v>-0.05174961998445252</v>
+        <v>0.01756135659222363</v>
       </c>
       <c r="F59">
-        <v>-0.04974410716923428</v>
+        <v>0.0457908169258809</v>
       </c>
       <c r="G59">
-        <v>-0.001075589199403076</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.001903470542529119</v>
+      </c>
+      <c r="H59">
+        <v>-0.01942573648391839</v>
+      </c>
+      <c r="I59">
+        <v>-0.02151071316227471</v>
+      </c>
+      <c r="J59">
+        <v>-0.02582812958536289</v>
+      </c>
+      <c r="K59">
+        <v>0.02621185721899693</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1068222980301687</v>
+        <v>0.1446876341486246</v>
       </c>
       <c r="C60">
-        <v>-0.1368836823834661</v>
+        <v>-0.1519026336395614</v>
       </c>
       <c r="D60">
-        <v>-0.08472024060230965</v>
+        <v>0.04744930905318963</v>
       </c>
       <c r="E60">
-        <v>0.06735207032116329</v>
+        <v>0.03969155827795656</v>
       </c>
       <c r="F60">
-        <v>-0.1350421628375891</v>
+        <v>-0.1131390500387587</v>
       </c>
       <c r="G60">
-        <v>-0.2518411549258985</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.2578888554109334</v>
+      </c>
+      <c r="H60">
+        <v>-0.2292583897961646</v>
+      </c>
+      <c r="I60">
+        <v>-0.0421032726035296</v>
+      </c>
+      <c r="J60">
+        <v>0.03267308222452261</v>
+      </c>
+      <c r="K60">
+        <v>-0.04590481901206427</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.0004855272841537112</v>
+        <v>0.02051346996721947</v>
       </c>
       <c r="C61">
-        <v>-0.07915216048568088</v>
+        <v>-0.09768446557091663</v>
       </c>
       <c r="D61">
-        <v>-0.06329001418696274</v>
+        <v>0.05340498419975247</v>
       </c>
       <c r="E61">
-        <v>0.03088661023358619</v>
+        <v>0.008398417395687894</v>
       </c>
       <c r="F61">
-        <v>-0.0241880353186819</v>
+        <v>-0.02970147195827657</v>
       </c>
       <c r="G61">
-        <v>-0.08026232213083552</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02852087236407769</v>
+      </c>
+      <c r="H61">
+        <v>0.05849962455357671</v>
+      </c>
+      <c r="I61">
+        <v>0.03433029915931917</v>
+      </c>
+      <c r="J61">
+        <v>0.02465838713119844</v>
+      </c>
+      <c r="K61">
+        <v>0.01486322284076592</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002933058580329469</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01337803691235803</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.002911608277651373</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.009779117981065589</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.01595807334985886</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.02031716929845566</v>
+      </c>
+      <c r="H62">
+        <v>0.0004002171844906027</v>
+      </c>
+      <c r="I62">
+        <v>0.0560656184531915</v>
+      </c>
+      <c r="J62">
+        <v>-0.02138531175029117</v>
+      </c>
+      <c r="K62">
+        <v>0.005603869838889951</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.00426449461509474</v>
+        <v>0.02640680216399314</v>
       </c>
       <c r="C63">
-        <v>-0.05703719847967353</v>
+        <v>-0.06670455042484033</v>
       </c>
       <c r="D63">
-        <v>-0.0440710646504291</v>
+        <v>0.05973156407292983</v>
       </c>
       <c r="E63">
-        <v>0.03139167612523593</v>
+        <v>0.005912573049335235</v>
       </c>
       <c r="F63">
-        <v>-0.0009839908094969969</v>
+        <v>-0.01698346884931445</v>
       </c>
       <c r="G63">
-        <v>-0.02840871281227237</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.001554532450512084</v>
+      </c>
+      <c r="H63">
+        <v>0.05577944546736352</v>
+      </c>
+      <c r="I63">
+        <v>0.03752143207216214</v>
+      </c>
+      <c r="J63">
+        <v>0.01107590768839234</v>
+      </c>
+      <c r="K63">
+        <v>0.01036106818792659</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.004556818866575168</v>
+        <v>0.01405303092494086</v>
       </c>
       <c r="C64">
-        <v>-0.07708352391971801</v>
+        <v>-0.09198433878861736</v>
       </c>
       <c r="D64">
-        <v>-0.0691009432533239</v>
+        <v>0.03218736926491206</v>
       </c>
       <c r="E64">
-        <v>-0.004217542584383587</v>
+        <v>-0.02601758015097753</v>
       </c>
       <c r="F64">
-        <v>0.00842924409669204</v>
+        <v>0.02861309145458</v>
       </c>
       <c r="G64">
-        <v>-0.06709457663269817</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.07002523411588878</v>
+      </c>
+      <c r="H64">
+        <v>0.0511766501088529</v>
+      </c>
+      <c r="I64">
+        <v>0.03086277865015113</v>
+      </c>
+      <c r="J64">
+        <v>0.03830973253984759</v>
+      </c>
+      <c r="K64">
+        <v>0.01606951331361787</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.005014938880265147</v>
+        <v>0.03013361133399713</v>
       </c>
       <c r="C65">
-        <v>-0.07985710720194451</v>
+        <v>-0.09582317178055422</v>
       </c>
       <c r="D65">
-        <v>-0.04009373897483517</v>
+        <v>0.02110909391471433</v>
       </c>
       <c r="E65">
-        <v>-0.03657580811640757</v>
+        <v>-0.01411935785307777</v>
       </c>
       <c r="F65">
-        <v>0.009151580828582744</v>
+        <v>0.00233186955290433</v>
       </c>
       <c r="G65">
-        <v>-0.0298607265237555</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.08635431017803701</v>
+      </c>
+      <c r="H65">
+        <v>0.00945958033924593</v>
+      </c>
+      <c r="I65">
+        <v>-0.0281517731581871</v>
+      </c>
+      <c r="J65">
+        <v>0.09500778006022374</v>
+      </c>
+      <c r="K65">
+        <v>-0.09249498812397271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.004451673984186917</v>
+        <v>0.01390855831961159</v>
       </c>
       <c r="C66">
-        <v>-0.1688126287016067</v>
+        <v>-0.1663515485339357</v>
       </c>
       <c r="D66">
-        <v>-0.04293538078066008</v>
+        <v>0.04904307268380687</v>
       </c>
       <c r="E66">
-        <v>-0.03350408476410012</v>
+        <v>0.01549112241411231</v>
       </c>
       <c r="F66">
-        <v>-0.02210695152767267</v>
+        <v>0.01061842150311398</v>
       </c>
       <c r="G66">
-        <v>-0.1072367382176499</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.02664658883944484</v>
+      </c>
+      <c r="H66">
+        <v>0.06519579135138609</v>
+      </c>
+      <c r="I66">
+        <v>0.02948435342087161</v>
+      </c>
+      <c r="J66">
+        <v>0.04962416541777661</v>
+      </c>
+      <c r="K66">
+        <v>-0.02177299292652491</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.03085647959965463</v>
+        <v>0.01890038716743501</v>
       </c>
       <c r="C67">
-        <v>-0.02904675240254305</v>
+        <v>-0.0505654293151066</v>
       </c>
       <c r="D67">
-        <v>-0.06617734057912421</v>
+        <v>0.04302143380011964</v>
       </c>
       <c r="E67">
-        <v>0.04571800487347799</v>
+        <v>-0.02854845355468239</v>
       </c>
       <c r="F67">
-        <v>-0.002669054255315544</v>
+        <v>-0.01762444471327464</v>
       </c>
       <c r="G67">
-        <v>-0.03759966446111467</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02706506643634306</v>
+      </c>
+      <c r="H67">
+        <v>0.05745524081542211</v>
+      </c>
+      <c r="I67">
+        <v>-0.0277253864532399</v>
+      </c>
+      <c r="J67">
+        <v>-0.04136987944535613</v>
+      </c>
+      <c r="K67">
+        <v>0.04345806283419202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2948354319053393</v>
+        <v>0.2954222934807005</v>
       </c>
       <c r="C68">
-        <v>0.02904671891992482</v>
+        <v>0.06723069470134056</v>
       </c>
       <c r="D68">
-        <v>-0.0001508454370063754</v>
+        <v>-0.02394868443941858</v>
       </c>
       <c r="E68">
-        <v>-0.02930928859270526</v>
+        <v>0.006661636912053109</v>
       </c>
       <c r="F68">
-        <v>-0.006753058226794348</v>
+        <v>0.03907249360080635</v>
       </c>
       <c r="G68">
-        <v>-0.001615556036559716</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01782267867563334</v>
+      </c>
+      <c r="H68">
+        <v>0.01831936184041329</v>
+      </c>
+      <c r="I68">
+        <v>0.05959467816507404</v>
+      </c>
+      <c r="J68">
+        <v>-0.05090081868588912</v>
+      </c>
+      <c r="K68">
+        <v>-0.003224772365031693</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.007609854813186798</v>
+        <v>0.008164368452294178</v>
       </c>
       <c r="C69">
-        <v>-0.04175968720396128</v>
+        <v>-0.04666135842736365</v>
       </c>
       <c r="D69">
-        <v>-0.0641123304094464</v>
+        <v>0.02470043898026737</v>
       </c>
       <c r="E69">
-        <v>0.02151284919868365</v>
+        <v>0.005099189677383835</v>
       </c>
       <c r="F69">
-        <v>-0.005790794669497312</v>
+        <v>-0.01501621109976618</v>
       </c>
       <c r="G69">
-        <v>-0.01604799363585815</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02276522496093937</v>
+      </c>
+      <c r="H69">
+        <v>0.03783900862771659</v>
+      </c>
+      <c r="I69">
+        <v>0.000408688720884841</v>
+      </c>
+      <c r="J69">
+        <v>-0.02498279164601675</v>
+      </c>
+      <c r="K69">
+        <v>0.005376477917503673</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2834354660541184</v>
+        <v>0.2775517089589725</v>
       </c>
       <c r="C71">
-        <v>0.0377549606577165</v>
+        <v>0.07262931976796581</v>
       </c>
       <c r="D71">
-        <v>0.009079233217018076</v>
+        <v>-0.0227080610218954</v>
       </c>
       <c r="E71">
-        <v>-0.02026032341721513</v>
+        <v>-0.01497847924541242</v>
       </c>
       <c r="F71">
-        <v>0.01198268380175712</v>
+        <v>0.06020115595981984</v>
       </c>
       <c r="G71">
-        <v>-0.01219856519377713</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02546303907881642</v>
+      </c>
+      <c r="H71">
+        <v>0.04962793073522514</v>
+      </c>
+      <c r="I71">
+        <v>0.007783674737604264</v>
+      </c>
+      <c r="J71">
+        <v>-0.1229498785967793</v>
+      </c>
+      <c r="K71">
+        <v>-0.0356876081326269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.01784148923212099</v>
+        <v>0.05465505541867754</v>
       </c>
       <c r="C72">
-        <v>-0.1516947701575226</v>
+        <v>-0.1428602063415309</v>
       </c>
       <c r="D72">
-        <v>-0.07235473658309829</v>
+        <v>0.05173963677768092</v>
       </c>
       <c r="E72">
-        <v>8.705177921985603e-05</v>
+        <v>0.01941158121120103</v>
       </c>
       <c r="F72">
-        <v>0.05217762311193758</v>
+        <v>-0.04343247654196219</v>
       </c>
       <c r="G72">
-        <v>-0.1106253377730502</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.01032329462067613</v>
+      </c>
+      <c r="H72">
+        <v>0.0247431632884918</v>
+      </c>
+      <c r="I72">
+        <v>0.04309988268547849</v>
+      </c>
+      <c r="J72">
+        <v>0.1164449818641274</v>
+      </c>
+      <c r="K72">
+        <v>-0.05546939749394061</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.06984521840672676</v>
+        <v>0.1486341347959973</v>
       </c>
       <c r="C73">
-        <v>-0.1022682234975555</v>
+        <v>-0.1958125247725006</v>
       </c>
       <c r="D73">
-        <v>-0.119995400447985</v>
+        <v>0.08833491642191083</v>
       </c>
       <c r="E73">
-        <v>0.1676593265077219</v>
+        <v>0.01997321677442072</v>
       </c>
       <c r="F73">
-        <v>-0.1506412762931885</v>
+        <v>-0.2355326733766945</v>
       </c>
       <c r="G73">
-        <v>-0.3390280321368203</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3898745256741565</v>
+      </c>
+      <c r="H73">
+        <v>-0.2882775021514385</v>
+      </c>
+      <c r="I73">
+        <v>-0.09450381842592455</v>
+      </c>
+      <c r="J73">
+        <v>-0.07233361231021031</v>
+      </c>
+      <c r="K73">
+        <v>-0.08299086074715005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.008625965550649815</v>
+        <v>0.03845254784706472</v>
       </c>
       <c r="C74">
-        <v>-0.08289037984498314</v>
+        <v>-0.1004756847545419</v>
       </c>
       <c r="D74">
-        <v>-0.08213900359685959</v>
+        <v>0.04727873999464425</v>
       </c>
       <c r="E74">
-        <v>0.07713160742549691</v>
+        <v>-0.009899927826269998</v>
       </c>
       <c r="F74">
-        <v>-0.04579781803183037</v>
+        <v>-0.03831701880395305</v>
       </c>
       <c r="G74">
-        <v>0.0338700873721963</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.04320789432981494</v>
+      </c>
+      <c r="H74">
+        <v>-0.009512611699454849</v>
+      </c>
+      <c r="I74">
+        <v>0.04043466751259583</v>
+      </c>
+      <c r="J74">
+        <v>-0.008846381335098704</v>
+      </c>
+      <c r="K74">
+        <v>-0.03573945441913783</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.04649690820474198</v>
+        <v>0.0640866910000006</v>
       </c>
       <c r="C75">
-        <v>-0.140160876788759</v>
+        <v>-0.1653868681582331</v>
       </c>
       <c r="D75">
-        <v>-0.1046184137333259</v>
+        <v>0.08842593204082518</v>
       </c>
       <c r="E75">
-        <v>0.1694676661834355</v>
+        <v>-0.03579242216837595</v>
       </c>
       <c r="F75">
-        <v>-0.03608080518886946</v>
+        <v>-0.1214977394691081</v>
       </c>
       <c r="G75">
-        <v>0.1871916940214672</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.2284041860336493</v>
+      </c>
+      <c r="H75">
+        <v>-0.04294660260146008</v>
+      </c>
+      <c r="I75">
+        <v>0.01169455796422381</v>
+      </c>
+      <c r="J75">
+        <v>-0.1249834945367269</v>
+      </c>
+      <c r="K75">
+        <v>0.100797741382095</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.01523121885824725</v>
+        <v>0.04107737130055054</v>
       </c>
       <c r="C76">
-        <v>-0.1002960400284287</v>
+        <v>-0.121636379589364</v>
       </c>
       <c r="D76">
-        <v>-0.07843632218060979</v>
+        <v>0.07476723075587105</v>
       </c>
       <c r="E76">
-        <v>0.08756799143454617</v>
+        <v>0.01212252865986036</v>
       </c>
       <c r="F76">
-        <v>-0.06253609465310338</v>
+        <v>-0.08719234237738528</v>
       </c>
       <c r="G76">
-        <v>0.04437929317931275</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.07625589030723301</v>
+      </c>
+      <c r="H76">
+        <v>-0.02344231941885758</v>
+      </c>
+      <c r="I76">
+        <v>0.05297957518087031</v>
+      </c>
+      <c r="J76">
+        <v>0.01409113296398447</v>
+      </c>
+      <c r="K76">
+        <v>0.02908570936284554</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.09204331301621357</v>
+        <v>0.05065446128553374</v>
       </c>
       <c r="C77">
-        <v>-0.3810374453377351</v>
+        <v>-0.405633695616365</v>
       </c>
       <c r="D77">
-        <v>0.8188486889321187</v>
+        <v>-0.8969703065671569</v>
       </c>
       <c r="E77">
-        <v>0.3432038780575353</v>
+        <v>-0.02169676532330123</v>
       </c>
       <c r="F77">
-        <v>-0.05723688869056046</v>
+        <v>-0.09168432626658708</v>
       </c>
       <c r="G77">
-        <v>-0.0467864120626952</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.03128902417001726</v>
+      </c>
+      <c r="H77">
+        <v>0.04092669139675983</v>
+      </c>
+      <c r="I77">
+        <v>0.05163114274164259</v>
+      </c>
+      <c r="J77">
+        <v>-0.01526063658825642</v>
+      </c>
+      <c r="K77">
+        <v>0.005562128671693788</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.01913313051492911</v>
+        <v>0.03369044400388879</v>
       </c>
       <c r="C78">
-        <v>-0.1304177462268745</v>
+        <v>-0.1144456742231838</v>
       </c>
       <c r="D78">
-        <v>-0.1368990116631918</v>
+        <v>0.09460243381868409</v>
       </c>
       <c r="E78">
-        <v>-0.06320607877828642</v>
+        <v>0.03924422007874077</v>
       </c>
       <c r="F78">
-        <v>-0.100752852930929</v>
+        <v>0.00267847533925793</v>
       </c>
       <c r="G78">
-        <v>0.04130800621234213</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.1108360827509109</v>
+      </c>
+      <c r="H78">
+        <v>0.07020733803042721</v>
+      </c>
+      <c r="I78">
+        <v>-0.02236096734955889</v>
+      </c>
+      <c r="J78">
+        <v>0.08025686473237595</v>
+      </c>
+      <c r="K78">
+        <v>-0.4316248669356833</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.02626095743856029</v>
+        <v>0.05472305514468918</v>
       </c>
       <c r="C79">
-        <v>-0.1644862482016438</v>
+        <v>-0.1433904680759304</v>
       </c>
       <c r="D79">
-        <v>-0.1356506581114728</v>
+        <v>0.07206177913722749</v>
       </c>
       <c r="E79">
-        <v>0.1179049269869705</v>
+        <v>0.01539491942037502</v>
       </c>
       <c r="F79">
-        <v>-0.09432118168376571</v>
+        <v>-0.07083647084225976</v>
       </c>
       <c r="G79">
-        <v>0.2224353261351171</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.2368879925299252</v>
+      </c>
+      <c r="H79">
+        <v>-0.007365893464082962</v>
+      </c>
+      <c r="I79">
+        <v>0.03313122413518128</v>
+      </c>
+      <c r="J79">
+        <v>-0.08195900504654755</v>
+      </c>
+      <c r="K79">
+        <v>-0.04866241271766662</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.01003943675775323</v>
+        <v>0.02070240696396015</v>
       </c>
       <c r="C80">
-        <v>-0.04203998766566529</v>
+        <v>-0.04575584706763234</v>
       </c>
       <c r="D80">
-        <v>-0.0482428614645192</v>
+        <v>0.04045240189931868</v>
       </c>
       <c r="E80">
-        <v>-0.01657700547519634</v>
+        <v>0.04683851387107616</v>
       </c>
       <c r="F80">
-        <v>-0.02264480469476422</v>
+        <v>0.02699968524090174</v>
       </c>
       <c r="G80">
-        <v>0.01499994175800347</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.06614332077659187</v>
+      </c>
+      <c r="H80">
+        <v>-0.02417002908015691</v>
+      </c>
+      <c r="I80">
+        <v>-0.05008782226768379</v>
+      </c>
+      <c r="J80">
+        <v>-0.02899988613165929</v>
+      </c>
+      <c r="K80">
+        <v>0.06775230423068831</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.007705604738277807</v>
+        <v>0.01814188660569638</v>
       </c>
       <c r="C81">
-        <v>-0.06825962650997522</v>
+        <v>-0.09770920045922578</v>
       </c>
       <c r="D81">
-        <v>-0.08423451399009631</v>
+        <v>0.05859521682356025</v>
       </c>
       <c r="E81">
-        <v>0.09009384818194449</v>
+        <v>0.01618598386660675</v>
       </c>
       <c r="F81">
-        <v>-0.05863051890765259</v>
+        <v>-0.05217074915031198</v>
       </c>
       <c r="G81">
-        <v>0.0742661907123298</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1125918644296157</v>
+      </c>
+      <c r="H81">
+        <v>0.03506829318482673</v>
+      </c>
+      <c r="I81">
+        <v>0.02444516853797065</v>
+      </c>
+      <c r="J81">
+        <v>-0.05976312513693137</v>
+      </c>
+      <c r="K81">
+        <v>0.02363881705873802</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.02004225291780319</v>
+        <v>0.04412316074706799</v>
       </c>
       <c r="C82">
-        <v>-0.0750355987120796</v>
+        <v>-0.1014384944801434</v>
       </c>
       <c r="D82">
-        <v>-0.0844022950533774</v>
+        <v>0.06638151409241363</v>
       </c>
       <c r="E82">
-        <v>0.1037782602397208</v>
+        <v>0.01777263158234818</v>
       </c>
       <c r="F82">
-        <v>-0.05248587592724548</v>
+        <v>-0.07442784152905378</v>
       </c>
       <c r="G82">
-        <v>0.03713415638828382</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.08682546696304126</v>
+      </c>
+      <c r="H82">
+        <v>-0.0006230039035577779</v>
+      </c>
+      <c r="I82">
+        <v>0.02489609471698016</v>
+      </c>
+      <c r="J82">
+        <v>-0.01214437870734356</v>
+      </c>
+      <c r="K82">
+        <v>0.001820765650083465</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>8.06764406814484e-05</v>
+        <v>-0.001523557963729767</v>
       </c>
       <c r="C83">
-        <v>-0.03154348351383537</v>
+        <v>0.02456093940513203</v>
       </c>
       <c r="D83">
-        <v>0.1671301477002749</v>
+        <v>-0.05637521440513615</v>
       </c>
       <c r="E83">
-        <v>-0.4887681185893525</v>
+        <v>0.9537997833902393</v>
       </c>
       <c r="F83">
-        <v>-0.7730752155234608</v>
+        <v>0.1291814851332319</v>
       </c>
       <c r="G83">
-        <v>0.1380780378668551</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.03788897955331566</v>
+      </c>
+      <c r="H83">
+        <v>-0.07095864000618557</v>
+      </c>
+      <c r="I83">
+        <v>-0.01414711571481626</v>
+      </c>
+      <c r="J83">
+        <v>0.07672538728048955</v>
+      </c>
+      <c r="K83">
+        <v>-0.02522949869040581</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.007539534738602182</v>
+        <v>-0.001966573083088066</v>
       </c>
       <c r="C84">
-        <v>-0.07619772382240683</v>
+        <v>-0.04738641738191941</v>
       </c>
       <c r="D84">
-        <v>-0.03886483731875921</v>
+        <v>0.06312810283103343</v>
       </c>
       <c r="E84">
-        <v>-0.08048991293652878</v>
+        <v>-0.03001886399245869</v>
       </c>
       <c r="F84">
-        <v>0.1381196072928601</v>
+        <v>0.0947433458742807</v>
       </c>
       <c r="G84">
-        <v>0.01678570403250385</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.03929956518114122</v>
+      </c>
+      <c r="H84">
+        <v>0.08274336136378201</v>
+      </c>
+      <c r="I84">
+        <v>0.08798044324494129</v>
+      </c>
+      <c r="J84">
+        <v>0.1186467477665318</v>
+      </c>
+      <c r="K84">
+        <v>0.061683115155695</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.009278452817018626</v>
+        <v>0.0294955386390218</v>
       </c>
       <c r="C85">
-        <v>-0.1216670358566475</v>
+        <v>-0.115837042233053</v>
       </c>
       <c r="D85">
-        <v>-0.1022989808092218</v>
+        <v>0.08263111492058726</v>
       </c>
       <c r="E85">
-        <v>0.1195361006967697</v>
+        <v>0.019840661189468</v>
       </c>
       <c r="F85">
-        <v>-0.09021371672115835</v>
+        <v>-0.1343688690125471</v>
       </c>
       <c r="G85">
-        <v>0.1663922439025503</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.2178479570249876</v>
+      </c>
+      <c r="H85">
+        <v>-0.05593992120186655</v>
+      </c>
+      <c r="I85">
+        <v>0.07919988311654982</v>
+      </c>
+      <c r="J85">
+        <v>-0.08624569505255078</v>
+      </c>
+      <c r="K85">
+        <v>0.04612347078638132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01825284550449447</v>
+        <v>0.01663056257358727</v>
       </c>
       <c r="C86">
-        <v>-0.07483234956638848</v>
+        <v>-0.08209831116906371</v>
       </c>
       <c r="D86">
-        <v>0.01620235052744835</v>
+        <v>0.03208946320858706</v>
       </c>
       <c r="E86">
-        <v>-0.008596845690636684</v>
+        <v>-0.005557125939387335</v>
       </c>
       <c r="F86">
-        <v>0.03896505803629254</v>
+        <v>0.0754776863086552</v>
       </c>
       <c r="G86">
-        <v>-0.08230724323238439</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.05725746821358688</v>
+      </c>
+      <c r="H86">
+        <v>0.01804533326787406</v>
+      </c>
+      <c r="I86">
+        <v>-0.1384072558827674</v>
+      </c>
+      <c r="J86">
+        <v>-0.1159633658526482</v>
+      </c>
+      <c r="K86">
+        <v>-0.1695700622369273</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.02118297324504759</v>
+        <v>0.02562745071238915</v>
       </c>
       <c r="C87">
-        <v>-0.1489971729394446</v>
+        <v>-0.1193507004965767</v>
       </c>
       <c r="D87">
-        <v>-0.04033222230702965</v>
+        <v>0.02380447240827138</v>
       </c>
       <c r="E87">
-        <v>-0.1005372881750222</v>
+        <v>-0.001700014290949542</v>
       </c>
       <c r="F87">
-        <v>0.03766518895869921</v>
+        <v>0.05924870096722194</v>
       </c>
       <c r="G87">
-        <v>-0.01294109031508077</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.004716856509260379</v>
+      </c>
+      <c r="H87">
+        <v>0.03054676200346521</v>
+      </c>
+      <c r="I87">
+        <v>0.0930290533105414</v>
+      </c>
+      <c r="J87">
+        <v>0.06662250249563727</v>
+      </c>
+      <c r="K87">
+        <v>-0.0426338935887538</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.009034098046141846</v>
+        <v>0.03929214720453768</v>
       </c>
       <c r="C88">
-        <v>-0.03402601225147971</v>
+        <v>-0.06108773623336003</v>
       </c>
       <c r="D88">
-        <v>-0.04740923522154829</v>
+        <v>0.04180724294165238</v>
       </c>
       <c r="E88">
-        <v>0.05335888646715959</v>
+        <v>-0.004834615541274714</v>
       </c>
       <c r="F88">
-        <v>-0.008037089686015587</v>
+        <v>-0.02253320371494566</v>
       </c>
       <c r="G88">
-        <v>0.003223148166548699</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02224236047745546</v>
+      </c>
+      <c r="H88">
+        <v>-0.00617690150744293</v>
+      </c>
+      <c r="I88">
+        <v>-0.002669748041630807</v>
+      </c>
+      <c r="J88">
+        <v>-0.0124706215138562</v>
+      </c>
+      <c r="K88">
+        <v>0.07284530051416611</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4008163040028275</v>
+        <v>0.3919163568617129</v>
       </c>
       <c r="C89">
-        <v>0.06370021894280734</v>
+        <v>0.1133385993042791</v>
       </c>
       <c r="D89">
-        <v>-0.0733028868724403</v>
+        <v>-0.03631207245101642</v>
       </c>
       <c r="E89">
-        <v>-0.09045367817841117</v>
+        <v>-0.04307712387151794</v>
       </c>
       <c r="F89">
-        <v>0.08745499829747501</v>
+        <v>0.05818864646058864</v>
       </c>
       <c r="G89">
-        <v>0.03650874917224523</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.0391649650357845</v>
+      </c>
+      <c r="H89">
+        <v>0.02737911042096904</v>
+      </c>
+      <c r="I89">
+        <v>0.08596429012537887</v>
+      </c>
+      <c r="J89">
+        <v>0.7249522936243232</v>
+      </c>
+      <c r="K89">
+        <v>0.02803340351516765</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3101496540968755</v>
+        <v>0.3164744761495696</v>
       </c>
       <c r="C90">
-        <v>0.02270333373276933</v>
+        <v>0.07351750324496116</v>
       </c>
       <c r="D90">
-        <v>0.007101983559558785</v>
+        <v>-0.0190092931019248</v>
       </c>
       <c r="E90">
-        <v>-0.07007876487824903</v>
+        <v>0.005813189298864181</v>
       </c>
       <c r="F90">
-        <v>-0.04518092709402676</v>
+        <v>0.03944234768919697</v>
       </c>
       <c r="G90">
-        <v>-0.03037870253814281</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.005701526587315364</v>
+      </c>
+      <c r="H90">
+        <v>0.02122060040046419</v>
+      </c>
+      <c r="I90">
+        <v>-0.001064257112734209</v>
+      </c>
+      <c r="J90">
+        <v>-0.08684561608510097</v>
+      </c>
+      <c r="K90">
+        <v>-0.007157500486785417</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.02329743365434128</v>
+        <v>0.05394679458099711</v>
       </c>
       <c r="C91">
-        <v>-0.07649773327355135</v>
+        <v>-0.08149983689506871</v>
       </c>
       <c r="D91">
-        <v>-0.07515989588777942</v>
+        <v>0.05438769101489291</v>
       </c>
       <c r="E91">
-        <v>0.06454747252404401</v>
+        <v>0.04503441767902119</v>
       </c>
       <c r="F91">
-        <v>-0.060642384364212</v>
+        <v>-0.05853875748537468</v>
       </c>
       <c r="G91">
-        <v>0.07481724991339248</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.08121782914508736</v>
+      </c>
+      <c r="H91">
+        <v>-0.03888438012758701</v>
+      </c>
+      <c r="I91">
+        <v>0.002798368430041034</v>
+      </c>
+      <c r="J91">
+        <v>-0.002796808797008904</v>
+      </c>
+      <c r="K91">
+        <v>0.06552860483748132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3803900890801045</v>
+        <v>0.3533124140376669</v>
       </c>
       <c r="C92">
-        <v>0.05990492136259054</v>
+        <v>0.1180468929833714</v>
       </c>
       <c r="D92">
-        <v>0.01520067959400855</v>
+        <v>-0.05488618290171029</v>
       </c>
       <c r="E92">
-        <v>0.01332845185439619</v>
+        <v>-0.04229923234044444</v>
       </c>
       <c r="F92">
-        <v>0.1105729191691946</v>
+        <v>0.04870100088622287</v>
       </c>
       <c r="G92">
-        <v>0.02260906777923359</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.02033320626177602</v>
+      </c>
+      <c r="H92">
+        <v>0.05866456092932035</v>
+      </c>
+      <c r="I92">
+        <v>-0.003789606927310524</v>
+      </c>
+      <c r="J92">
+        <v>-0.1497944125669456</v>
+      </c>
+      <c r="K92">
+        <v>0.0048256987608451</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3066864692996235</v>
+        <v>0.3110012525703089</v>
       </c>
       <c r="C93">
-        <v>0.07071634021213376</v>
+        <v>0.1119917328526845</v>
       </c>
       <c r="D93">
-        <v>-0.008130144920968561</v>
+        <v>-0.009443366620268468</v>
       </c>
       <c r="E93">
-        <v>-0.06941972855444459</v>
+        <v>-0.004779661083075235</v>
       </c>
       <c r="F93">
-        <v>0.0281351292858669</v>
+        <v>0.03738817705511474</v>
       </c>
       <c r="G93">
-        <v>0.0103587715766837</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04180697190311877</v>
+      </c>
+      <c r="H93">
+        <v>0.02988377146921244</v>
+      </c>
+      <c r="I93">
+        <v>-0.02862966232701883</v>
+      </c>
+      <c r="J93">
+        <v>-0.09924092341100506</v>
+      </c>
+      <c r="K93">
+        <v>-0.01743766313595349</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.03980606570440673</v>
+        <v>0.07847357559025474</v>
       </c>
       <c r="C94">
-        <v>-0.1936347858467506</v>
+        <v>-0.1614109684266221</v>
       </c>
       <c r="D94">
-        <v>-0.1600989148931154</v>
+        <v>0.1100823908336214</v>
       </c>
       <c r="E94">
-        <v>0.2054869122843928</v>
+        <v>0.03504195449988856</v>
       </c>
       <c r="F94">
-        <v>-0.0642548810921082</v>
+        <v>-0.1571956834295512</v>
       </c>
       <c r="G94">
-        <v>0.5932398755818761</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.5230235903266397</v>
+      </c>
+      <c r="H94">
+        <v>-0.2317945818670054</v>
+      </c>
+      <c r="I94">
+        <v>-0.04037295942832615</v>
+      </c>
+      <c r="J94">
+        <v>0.1142139962822082</v>
+      </c>
+      <c r="K94">
+        <v>0.2505402580931431</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.01936608136034585</v>
+        <v>0.0389467262650243</v>
       </c>
       <c r="C95">
-        <v>-0.09556464208965654</v>
+        <v>-0.1265689898138797</v>
       </c>
       <c r="D95">
-        <v>-0.04404093840270489</v>
+        <v>0.06372002705505307</v>
       </c>
       <c r="E95">
-        <v>0.03404466062589139</v>
+        <v>-0.01875183387372478</v>
       </c>
       <c r="F95">
-        <v>-0.07455261000506147</v>
+        <v>-0.07711124200768778</v>
       </c>
       <c r="G95">
-        <v>-0.0846864161702941</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.04849856387962969</v>
+      </c>
+      <c r="H95">
+        <v>0.0721387324626412</v>
+      </c>
+      <c r="I95">
+        <v>0.09395157680553949</v>
+      </c>
+      <c r="J95">
+        <v>0.1586541037724387</v>
+      </c>
+      <c r="K95">
+        <v>0.2737553546242018</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-5.622209824948819e-05</v>
+        <v>0.01601771678860314</v>
       </c>
       <c r="C97">
-        <v>-0.0006828874335143234</v>
+        <v>-0.01626908494516109</v>
       </c>
       <c r="D97">
-        <v>-0.001294328015796553</v>
+        <v>-0.005793378833665271</v>
       </c>
       <c r="E97">
-        <v>0.001073725038757888</v>
+        <v>-0.02828679655589238</v>
       </c>
       <c r="F97">
-        <v>0.003361217792317378</v>
+        <v>-0.005370089410095221</v>
       </c>
       <c r="G97">
-        <v>-0.003204177418179018</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.0100613035876772</v>
+      </c>
+      <c r="H97">
+        <v>0.05676258779427603</v>
+      </c>
+      <c r="I97">
+        <v>-0.1469881190059709</v>
+      </c>
+      <c r="J97">
+        <v>0.05153878474327189</v>
+      </c>
+      <c r="K97">
+        <v>0.0336347381376247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.07903659956272031</v>
+        <v>0.1311744281271446</v>
       </c>
       <c r="C98">
-        <v>-0.1387261911533935</v>
+        <v>-0.1596186556789941</v>
       </c>
       <c r="D98">
-        <v>-0.1381887368531111</v>
+        <v>0.09485283996832643</v>
       </c>
       <c r="E98">
-        <v>0.09133228538549448</v>
+        <v>0.03821734067315152</v>
       </c>
       <c r="F98">
-        <v>-0.1023862431514755</v>
+        <v>-0.2170224650167326</v>
       </c>
       <c r="G98">
-        <v>-0.2200549060558529</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.3271503517729006</v>
+      </c>
+      <c r="H98">
+        <v>-0.3148203801560774</v>
+      </c>
+      <c r="I98">
+        <v>-0.1321408890177502</v>
+      </c>
+      <c r="J98">
+        <v>-0.08110253096181476</v>
+      </c>
+      <c r="K98">
+        <v>-0.08195000120592834</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01775000980745201</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.04353164130465614</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.01711284980602261</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.03031928424829746</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.08257652011549994</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.1021236415964438</v>
+      </c>
+      <c r="H99">
+        <v>0.2119831269095286</v>
+      </c>
+      <c r="I99">
+        <v>-0.8867631619527693</v>
+      </c>
+      <c r="J99">
+        <v>0.1698853987938394</v>
+      </c>
+      <c r="K99">
+        <v>0.003580629051323836</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.00509085433138511</v>
+        <v>0.01485338981595953</v>
       </c>
       <c r="C101">
-        <v>-0.07254367950681097</v>
+        <v>-0.08085345343540998</v>
       </c>
       <c r="D101">
-        <v>-0.04527902385901425</v>
+        <v>0.05232324724583531</v>
       </c>
       <c r="E101">
-        <v>-0.02396053647192732</v>
+        <v>0.04600033689119857</v>
       </c>
       <c r="F101">
-        <v>-0.02346668305507951</v>
+        <v>0.007059278773717964</v>
       </c>
       <c r="G101">
-        <v>-0.1134914543703456</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1178104540403716</v>
+      </c>
+      <c r="H101">
+        <v>0.2855946382312732</v>
+      </c>
+      <c r="I101">
+        <v>0.02602824741810627</v>
+      </c>
+      <c r="J101">
+        <v>-0.002213630082140492</v>
+      </c>
+      <c r="K101">
+        <v>0.1735964648865711</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.005751207324412393</v>
+        <v>0.002558365494255902</v>
       </c>
       <c r="C102">
-        <v>-0.02249164242595682</v>
+        <v>-0.008945701044430075</v>
       </c>
       <c r="D102">
-        <v>-0.006017596133196104</v>
+        <v>-0.0006926194600797323</v>
       </c>
       <c r="E102">
-        <v>0.02434481593580372</v>
+        <v>0.004272094605801017</v>
       </c>
       <c r="F102">
-        <v>-0.02449984695697067</v>
+        <v>-0.00739813021087514</v>
       </c>
       <c r="G102">
-        <v>0.002084290341523574</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.00143098420263213</v>
+      </c>
+      <c r="H102">
+        <v>-0.0002853390171219719</v>
+      </c>
+      <c r="I102">
+        <v>0.0005831446030063912</v>
+      </c>
+      <c r="J102">
+        <v>0.01472744368440632</v>
+      </c>
+      <c r="K102">
+        <v>-0.006321864583024512</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
